--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-PLANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F6805-2FD3-4713-A7A2-3D3730469597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73713391-FF4C-446D-9963-BA749C6C004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,9 +251,6 @@
     <t>Cancelled</t>
   </si>
   <si>
-    <t>Hub World system</t>
-  </si>
-  <si>
     <t>Farming System</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>the Character behavior reserch</t>
+  </si>
+  <si>
+    <t>Hub World System</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -347,8 +347,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +408,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,10 +547,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,9 +738,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -1181,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1720,7 @@
         <v>60</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1740,7 +1757,7 @@
         <v>60</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1777,7 +1794,7 @@
         <v>60</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1880,7 +1897,7 @@
       </c>
       <c r="I19" s="59">
         <f>SUM(I20:I24)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" s="58" t="str">
         <f>IF(COUNTIF(J20:J24, "Not Started") = COUNT(J20:J24), "Complete", "Not Started")</f>
@@ -1921,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>61</v>
@@ -1943,22 +1960,18 @@
     </row>
     <row r="21" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="56" t="s">
-        <v>64</v>
-      </c>
+      <c r="B21" s="56"/>
       <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="18">
-        <v>2</v>
-      </c>
+      <c r="I21" s="18"/>
       <c r="J21" s="60" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="1"/>
@@ -1993,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="1"/>
@@ -2014,7 +2027,7 @@
     <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>36</v>
@@ -2046,8 +2059,8 @@
     </row>
     <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="20" t="s">
-        <v>66</v>
+      <c r="B24" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>40</v>
@@ -2230,9 +2243,11 @@
     </row>
     <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="56"/>
+      <c r="B29" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-PLANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73713391-FF4C-446D-9963-BA749C6C004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B813FD-E4FC-45E7-A092-AAFE72425ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>61</v>
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="1"/>
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="1"/>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="1"/>
@@ -2256,7 +2256,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
       <c r="J29" s="60" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="1"/>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-PLANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B813FD-E4FC-45E7-A092-AAFE72425ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F038E-E74C-4A1F-8382-DB129651DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Hub World System</t>
+  </si>
+  <si>
+    <t>The coding on the system is Complete</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2123,9 @@
         <f>IF(COUNTIF(J26:J30, "Not Started") = COUNT(J26:J30), "Complete", "Not Started")</f>
         <v>Not Started</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2153,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="1"/>
@@ -2256,7 +2261,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
       <c r="J29" s="60" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="1"/>
@@ -2368,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="1"/>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-PLANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F038E-E74C-4A1F-8382-DB129651DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFC5EB-7C0C-4D06-80BD-CB53C96D2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>The coding on the system is Complete</t>
+  </si>
+  <si>
+    <t>Additional week for art</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="60" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="1"/>
@@ -2611,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="1"/>
@@ -2752,7 +2755,9 @@
         <f>IF(COUNTIF(J44:J48, "Not Started") = COUNT(J44:J48), "Complete", "Not Started")</f>
         <v>Not Started</v>
       </c>
-      <c r="K43" s="21"/>
+      <c r="K43" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-PLANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFC5EB-7C0C-4D06-80BD-CB53C96D2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D5B9A-CBD5-4CB4-9B0B-FC78E1291BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Reserching</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Art(Map , Items)</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Additional week for art</t>
+  </si>
+  <si>
+    <t>The project is DONE</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1760,10 +1760,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1797,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1910,7 +1910,7 @@
         <v>Not Started</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1944,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="1"/>
@@ -2033,7 +2033,7 @@
     <row r="23" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>36</v>
@@ -2045,7 +2045,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="1"/>
@@ -2066,7 +2066,7 @@
     <row r="24" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>40</v>
@@ -2078,7 +2078,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
       <c r="J24" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="1"/>
@@ -2127,7 +2127,7 @@
         <v>Not Started</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="1"/>
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="1"/>
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="1"/>
@@ -2252,7 +2252,7 @@
     <row r="29" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>36</v>
@@ -2264,7 +2264,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18"/>
       <c r="J29" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="1"/>
@@ -2362,7 +2362,7 @@
     <row r="32" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>35</v>
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="1"/>
@@ -2565,7 +2565,7 @@
     <row r="38" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>35</v>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="1"/>
@@ -2614,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="1"/>
@@ -2756,7 +2756,7 @@
         <v>Not Started</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2790,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="60" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="1"/>
@@ -2825,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="60" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="1"/>
@@ -2860,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="60" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="1"/>
@@ -2970,7 +2970,9 @@
         <f>IF(COUNTIF(J50:J56, "Not Started") = COUNT(J50:J56), "Complete", "Not Started")</f>
         <v>Not Started</v>
       </c>
-      <c r="K49" s="21"/>
+      <c r="K49" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3003,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="60" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="1"/>
@@ -3038,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="60" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="1"/>
